--- a/Bảng-kế-hoạch-web.xlsx
+++ b/Bảng-kế-hoạch-web.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studying\Năm 3\Lập trình WEB\FinalProject\New folder\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9564B074-4A0C-4C61-A288-824F52DEDB1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +16,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
+    <t>Đề tài đồ án Web : Thiết kế Website Quản lý Sinh viên</t>
+  </si>
+  <si>
     <t>STT</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
     <t>Mô tả chi tiết quan hệ</t>
   </si>
   <si>
+    <t>Xây dựng dữ liệu bảng trong SQL</t>
+  </si>
+  <si>
     <t>Các menu chính của giao diện</t>
   </si>
   <si>
@@ -91,7 +91,7 @@
     <t>Truyền dữ liệu vào form chức năng</t>
   </si>
   <si>
-    <t>form hồ sơ tuyển sinh</t>
+    <t>form chính</t>
   </si>
   <si>
     <t>form điểm thi</t>
@@ -110,19 +110,19 @@
   </si>
   <si>
     <t>Viết báo cáo</t>
-  </si>
-  <si>
-    <t>Đề tài đồ án Web : Thiết kế Website Quản lý Sinh viên</t>
-  </si>
-  <si>
-    <t>Xây dựng dữ liệu bảng trong SQL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,8 +138,152 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,12 +298,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
-        <bgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor theme="4" tint="0.799951170384838"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -347,18 +677,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -375,12 +953,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -414,39 +995,62 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -704,421 +1308,422 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.109375" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.1047619047619" customWidth="1"/>
+    <col min="2" max="2" width="32.1047619047619" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="6" width="11.5546875" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.8857142857143" customWidth="1"/>
+    <col min="5" max="6" width="11.552380952381" customWidth="1"/>
+    <col min="7" max="7" width="19.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="19.552380952381" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="19.5546875" customWidth="1"/>
+    <col min="10" max="10" width="19.552380952381" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" ht="15.75" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:10">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="11"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="11"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="11"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="8">
+        <v>5</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="8">
+        <v>6</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="8">
+        <v>7</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="8">
+        <v>8</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="11">
+        <v>9</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="11"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="11"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="11"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="11"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" ht="15.75" spans="1:10">
+      <c r="A19" s="11"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" ht="15.75" spans="1:10">
+      <c r="A20" s="15">
         <v>10</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="26">
-        <v>4</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="26"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="26"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="9" t="s">
+      <c r="B20" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="26"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="6">
-        <v>5</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="6">
-        <v>6</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="6">
-        <v>7</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="6">
-        <v>8</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="26">
-        <v>9</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="26"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="26"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="26"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="17"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="26"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="17"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="26"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="18"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="12">
-        <v>10</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="19"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B14:B19"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>